--- a/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT.xlsx
+++ b/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet-total" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,160 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>airven</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>airven:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+chengzhengwen:
+jx:area(lastCell=”E12”)
+jx:each(items=”pages_one”,var=”page”,lastCell=”E10” multisheet=”sheetNames_1”)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>airven:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items=”page.onlyOne.cmpAccountDetailMap.keySet()” var="key" varStatus="count" lastCell=”B8”)
+jx:params(formulaStrategy="BY_COLUMN")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>airven</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>airven:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell=”E12”)
+jx:each(items=”pages_two”,var=”page”,lastCell=”E10” multisheet=”sheetNames_2”)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>airven:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items=”page.onlyOne.accountForDepartmentRqs” var=”myObj” lastCell=”B8”)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>airven:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items=”myObj.orgAccountDetailMap.keySet()” var=”key” lastCell=”C10”)
+jx:params(formulaStrategy="BY_COLUMN")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
-  <si>
-    <t>玖旺物业入驻企业3月度汇总账单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+  <si>
+    <t>玖旺物业入驻企业${month}月度汇总账单</t>
   </si>
   <si>
     <t>企业名称</t>
   </si>
   <si>
-    <t>启迪设计集团</t>
+    <t>${page.onlyOne.groupName}</t>
   </si>
   <si>
     <t>账单日期</t>
   </si>
   <si>
-    <t>2023.03.22 10:56</t>
+    <t>${page.onlyOne.AccountTime}</t>
   </si>
   <si>
     <t>货币形式</t>
@@ -47,7 +185,7 @@
     <t>(大写)肆仟捌佰伍拾叁元陆角壹分</t>
   </si>
   <si>
-    <t>(小写)4853.61</t>
+    <t>(小写)${page.onlyOne.totalAccountForTenant}</t>
   </si>
   <si>
     <t>账单详情</t>
@@ -59,7 +197,10 @@
     <t>金额</t>
   </si>
   <si>
-    <t>启迪会议</t>
+    <t>${key}</t>
+  </si>
+  <si>
+    <t>${page.onlyOne.cmpAccountDetailMap.get(key)</t>
   </si>
   <si>
     <t>启迪餐饮</t>
@@ -74,19 +215,25 @@
     <t>启迪运动</t>
   </si>
   <si>
-    <t>玖旺物业入驻企业3月度部门费用明细单</t>
+    <t>玖旺物业入驻企业${month}月度部门费用明细单</t>
+  </si>
+  <si>
+    <t>${myObj.appName}</t>
   </si>
   <si>
     <t>汇总金额</t>
   </si>
   <si>
+    <t>${myObj.totalAccountForApp}</t>
+  </si>
+  <si>
     <t>部门名称</t>
   </si>
   <si>
     <t>费用金额</t>
   </si>
   <si>
-    <t>机电设计一院</t>
+    <t>${myObj.orgAccountDetailMap.get(key)}</t>
   </si>
   <si>
     <t>机电设计二院</t>
@@ -108,7 +255,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -304,6 +451,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1209,7 +1367,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1217,7 +1375,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1295,15 +1453,15 @@
       <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18">
-        <v>932.16</v>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="18">
         <v>994.43</v>
@@ -1313,7 +1471,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="18">
         <v>960.5</v>
@@ -1323,7 +1481,7 @@
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:4">
       <c r="A11" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="18">
         <v>982.34</v>
@@ -1333,7 +1491,7 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:4">
       <c r="A12" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="18">
         <v>984.18</v>
@@ -1359,6 +1517,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1368,7 +1527,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1376,12 +1535,12 @@
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1442,44 +1601,44 @@
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4853.61</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="4">
-        <v>491.34</v>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="12">
@@ -1489,7 +1648,7 @@
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="12">
@@ -1499,7 +1658,7 @@
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="12">
@@ -1531,5 +1690,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT.xlsx
+++ b/jeepay-manager/src/main/resources/templates/TEMPLATE_TENANT.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="815" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="sheet-total" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet-detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -38,33 +37,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-chengzhengwen:
-jx:area(lastCell=”E12”)
-jx:each(items=”pages_one”,var=”page”,lastCell=”E10” multisheet=”sheetNames_1”)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>airven:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items=”page.onlyOne.cmpAccountDetailMap.keySet()” var="key" varStatus="count" lastCell=”B8”)
-jx:params(formulaStrategy="BY_COLUMN")
+jx:area(lastCell=”E4”)
+jx:each(items=”pages_one”, var=”page”, lastCell=”E4” multisheet=”sheetNames_1”)
 </t>
         </r>
       </text>
@@ -73,176 +47,10 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>airven</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>airven:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell=”E12”)
-jx:each(items=”pages_two”,var=”page”,lastCell=”E10” multisheet=”sheetNames_2”)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>airven:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items=”page.onlyOne.accountForDepartmentRqs” var=”myObj” lastCell=”B8”)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>airven:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items=”myObj.orgAccountDetailMap.keySet()” var=”key” lastCell=”C10”)
-jx:params(formulaStrategy="BY_COLUMN")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>玖旺物业入驻企业${month}月度汇总账单</t>
-  </si>
-  <si>
-    <t>企业名称</t>
-  </si>
-  <si>
-    <t>${page.onlyOne.groupName}</t>
-  </si>
-  <si>
-    <t>账单日期</t>
-  </si>
-  <si>
-    <t>${page.onlyOne.AccountTime}</t>
-  </si>
-  <si>
-    <t>货币形式</t>
-  </si>
-  <si>
-    <t>(人民币)CNY</t>
-  </si>
-  <si>
-    <t>单位：元</t>
-  </si>
-  <si>
-    <t>账单合计</t>
-  </si>
-  <si>
-    <t>(大写)肆仟捌佰伍拾叁元陆角壹分</t>
-  </si>
-  <si>
-    <t>(小写)${page.onlyOne.totalAccountForTenant}</t>
-  </si>
-  <si>
-    <t>账单详情</t>
-  </si>
-  <si>
-    <t>账单类别</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>${key}</t>
-  </si>
-  <si>
-    <t>${page.onlyOne.cmpAccountDetailMap.get(key)</t>
-  </si>
-  <si>
-    <t>启迪餐饮</t>
-  </si>
-  <si>
-    <t>启迪健身</t>
-  </si>
-  <si>
-    <t>启迪停车</t>
-  </si>
-  <si>
-    <t>启迪运动</t>
-  </si>
-  <si>
-    <t>玖旺物业入驻企业${month}月度部门费用明细单</t>
-  </si>
-  <si>
-    <t>${myObj.appName}</t>
-  </si>
-  <si>
-    <t>汇总金额</t>
-  </si>
-  <si>
-    <t>${myObj.totalAccountForApp}</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-  </si>
-  <si>
-    <t>费用金额</t>
-  </si>
-  <si>
-    <t>${myObj.orgAccountDetailMap.get(key)}</t>
-  </si>
-  <si>
-    <t>机电设计二院</t>
-  </si>
-  <si>
-    <t>建筑设计二院</t>
-  </si>
-  <si>
-    <t>智慧园区系统集成工程中心</t>
+    <t>玖旺物业入驻企业3月度汇总账单</t>
   </si>
 </sst>
 </file>
@@ -255,7 +63,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -273,30 +81,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="新宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,7 +248,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -670,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -691,52 +469,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -842,152 +574,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -996,54 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1364,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1375,7 +1059,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1383,313 +1067,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:4">
-      <c r="A8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:4">
-      <c r="A9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="18">
-        <v>994.43</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:4">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="18">
-        <v>960.5</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:4">
-      <c r="A11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="18">
-        <v>982.34</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:4">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="18">
-        <v>984.18</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12">
-        <v>491.34</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12">
-        <v>491.35</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12">
-        <v>497.43</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>